--- a/feature/complement-narratif-comptesregulateurs/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
+++ b/feature/complement-narratif-comptesregulateurs/ig/StructureDefinition-sas-sos-schedule-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T15:42:25+00:00</t>
+    <t>2024-12-03T16:32:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
